--- a/Axam_Results.xlsx
+++ b/Axam_Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/QA1_&amp;_3/Code/RothC_Implementation_Axam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/QA1_&amp;_3/Documentation/axam-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F038C1-3423-3F4A-B7CC-ACC99F8A7CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5479B3C-A227-5B45-8A7A-C8D22E1E9B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{AA4B684E-F9E2-7F41-996C-BD2AB92E0EF7}"/>
   </bookViews>
@@ -1662,12 +1662,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1677,6 +1671,12 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2014,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8459C356-BFF7-1A4F-8872-7C39E98F0955}">
-  <dimension ref="A2:X18"/>
+  <dimension ref="A2:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2038,7 +2038,7 @@
     <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.33203125" customWidth="1"/>
-    <col min="23" max="24" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -2051,19 +2051,19 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="128" t="s">
         <v>248</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="I3" s="124" t="s">
+      <c r="G3" s="128"/>
+      <c r="I3" s="128" t="s">
         <v>249</v>
       </c>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2154,62 +2154,62 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>11.5275376</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.56052927</v>
+      <c r="B6">
+        <v>11.5275375636592</v>
+      </c>
+      <c r="C6">
+        <v>3.5605292727663098</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D18" si="0">(B6 -C6)</f>
-        <v>7.9670083300000005</v>
+        <v>7.9670082908928901</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ref="F6:F18" si="1">D6*$B$2*44/12</f>
-        <v>262911.27489</v>
-      </c>
-      <c r="Q6" s="128" t="s">
+        <v>262911.27359946538</v>
+      </c>
+      <c r="Q6" s="126" t="s">
         <v>256</v>
       </c>
-      <c r="R6" s="126" t="s">
+      <c r="R6" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="S6" s="126" t="s">
+      <c r="S6" s="124" t="s">
         <v>251</v>
       </c>
-      <c r="T6" s="126" t="s">
+      <c r="T6" s="124" t="s">
         <v>252</v>
       </c>
-      <c r="U6" s="129" t="s">
+      <c r="U6" s="127" t="s">
         <v>257</v>
       </c>
-      <c r="V6" s="126" t="s">
+      <c r="V6" s="124" t="s">
         <v>253</v>
       </c>
-      <c r="W6" s="126" t="s">
+      <c r="W6" s="124" t="s">
         <v>254</v>
       </c>
-      <c r="X6" s="127" t="s">
+      <c r="X6" s="125" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B7" s="1">
-        <v>11.1937988</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.5159391200000001</v>
+        <v>2025</v>
+      </c>
+      <c r="B7">
+        <v>11.5275365866203</v>
+      </c>
+      <c r="C7">
+        <v>3.5605283073246401</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>7.6778596799999992</v>
+        <v>7.9670082792956602</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>253369.36943999995</v>
+        <v>262911.27321675682</v>
       </c>
       <c r="G7">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2237,24 +2237,54 @@
         <f>(N7+L7)-(I7+J7+K7+M7)</f>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q7" s="1">
+        <v>2025</v>
+      </c>
+      <c r="R7">
+        <f>SUM(I7,J7,K7,M7)</f>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S7">
+        <f>SUM(L7,N7)</f>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="123">
+        <f>(W7+V7)*0.175</f>
+        <v>43639.013978318224</v>
+      </c>
+      <c r="V7">
+        <f>R7-S7</f>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W7" s="123">
+        <f>F7-G7</f>
+        <v>245580.66047159847</v>
+      </c>
+      <c r="X7" s="123">
+        <f>W7+V7-U7</f>
+        <v>205726.78018350023</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2025</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10.944057600000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.4929559000000001</v>
+        <v>2026</v>
+      </c>
+      <c r="B8">
+        <v>11.527535628049</v>
+      </c>
+      <c r="C8">
+        <v>3.56052736013143</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>7.4511017000000006</v>
+        <v>7.9670082679175698</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="1"/>
-        <v>245886.3561</v>
+        <v>262911.2728412798</v>
       </c>
       <c r="G8">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2283,53 +2313,53 @@
         <v>-3785.133690219991</v>
       </c>
       <c r="Q8" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="R8">
-        <f>SUM(I8,J8,K8,M8)</f>
+        <f t="shared" ref="R8:R47" si="3">SUM(I8,J8,K8,M8)</f>
         <v>7935.6005102199906</v>
       </c>
       <c r="S8">
-        <f>SUM(L8,N8)</f>
+        <f t="shared" ref="S8:S47" si="4">SUM(L8,N8)</f>
         <v>4150.4668199999996</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="123">
-        <f>(W8+V8)*0.175</f>
-        <v>40659.653482885784</v>
+        <f t="shared" ref="U8:U47" si="5">(W8+V8)*0.175</f>
+        <v>43639.013912609749</v>
       </c>
       <c r="V8">
-        <f>R8-S8</f>
+        <f t="shared" ref="V8:V47" si="6">R8-S8</f>
         <v>3785.133690219991</v>
       </c>
       <c r="W8" s="123">
-        <f>F8-G8</f>
-        <v>228555.74335484166</v>
+        <f t="shared" ref="W8:W47" si="7">F8-G8</f>
+        <v>245580.66009612146</v>
       </c>
       <c r="X8" s="123">
-        <f>W8+V8-U8</f>
-        <v>191681.22356217587</v>
+        <f t="shared" ref="X8:X47" si="8">W8+V8-U8</f>
+        <v>205726.77987373169</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2026</v>
-      </c>
-      <c r="B9" s="1">
-        <v>11.0558327</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.5061362800000002</v>
+        <v>2027</v>
+      </c>
+      <c r="B9">
+        <v>11.527534687596299</v>
+      </c>
+      <c r="C9">
+        <v>3.5605264308417599</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>7.5496964200000001</v>
+        <v>7.9670082567545393</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>249139.98185999997</v>
+        <v>262911.27247289981</v>
       </c>
       <c r="G9">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2358,53 +2388,53 @@
         <v>-3785.133690219991</v>
       </c>
       <c r="Q9" s="1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="R9">
-        <f>SUM(I9,J9,K9,M9)</f>
+        <f t="shared" si="3"/>
         <v>7935.6005102199906</v>
       </c>
       <c r="S9">
-        <f>SUM(L9,N9)</f>
+        <f t="shared" si="4"/>
         <v>4150.4668199999996</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="123">
-        <f t="shared" ref="U9:U18" si="3">(W9+V9)*0.175</f>
-        <v>41229.037990885779</v>
+        <f t="shared" si="5"/>
+        <v>43639.013848143251</v>
       </c>
       <c r="V9">
-        <f t="shared" ref="V9:V18" si="4">R9-S9</f>
+        <f t="shared" si="6"/>
         <v>3785.133690219991</v>
       </c>
       <c r="W9" s="123">
-        <f t="shared" ref="W9:W18" si="5">F9-G9</f>
-        <v>231809.36911484163</v>
+        <f t="shared" si="7"/>
+        <v>245580.65972774147</v>
       </c>
       <c r="X9" s="123">
-        <f t="shared" ref="X9:X18" si="6">W9+V9-U9</f>
-        <v>194365.46481417582</v>
+        <f t="shared" si="8"/>
+        <v>205726.7795698182</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2027</v>
-      </c>
-      <c r="B10" s="1">
-        <v>11.1371655</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.5156614300000002</v>
+        <v>2028</v>
+      </c>
+      <c r="B10">
+        <v>11.5275337649198</v>
+      </c>
+      <c r="C10">
+        <v>3.56052551911722</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>7.6215040700000003</v>
+        <v>7.9670082458025799</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>251509.63430999999</v>
+        <v>262911.27211148513</v>
       </c>
       <c r="G10">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2433,53 +2463,53 @@
         <v>-3785.133690219991</v>
       </c>
       <c r="Q10" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="R10">
-        <f>SUM(I10,J10,K10,M10)</f>
+        <f t="shared" si="3"/>
         <v>7935.6005102199906</v>
       </c>
       <c r="S10">
-        <f>SUM(L10,N10)</f>
+        <f t="shared" si="4"/>
         <v>4150.4668199999996</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U10" s="123">
-        <f t="shared" si="3"/>
-        <v>41643.727169635786</v>
+        <f t="shared" si="5"/>
+        <v>43639.01378489568</v>
       </c>
       <c r="V10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3785.133690219991</v>
       </c>
       <c r="W10" s="123">
-        <f t="shared" si="5"/>
-        <v>234179.02156484165</v>
+        <f t="shared" si="7"/>
+        <v>245580.65936632678</v>
       </c>
       <c r="X10" s="123">
-        <f t="shared" si="6"/>
-        <v>196320.42808542584</v>
+        <f t="shared" si="8"/>
+        <v>205726.77927165109</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2028</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11.196634</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.52259024</v>
+        <v>2029</v>
+      </c>
+      <c r="B11">
+        <v>11.527532859683401</v>
+      </c>
+      <c r="C11">
+        <v>3.5605246246257898</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7.67404376</v>
+        <v>7.9670082350576106</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>253243.44408000002</v>
+        <v>262911.27175690111</v>
       </c>
       <c r="G11">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2508,53 +2538,53 @@
         <v>-3785.133690219991</v>
       </c>
       <c r="Q11" s="1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="R11">
-        <f>SUM(I11,J11,K11,M11)</f>
+        <f t="shared" si="3"/>
         <v>7935.6005102199906</v>
       </c>
       <c r="S11">
-        <f>SUM(L11,N11)</f>
+        <f t="shared" si="4"/>
         <v>4150.4668199999996</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U11" s="123">
-        <f t="shared" si="3"/>
-        <v>41947.143879385789</v>
+        <f t="shared" si="5"/>
+        <v>43639.013722843476</v>
       </c>
       <c r="V11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3785.133690219991</v>
       </c>
       <c r="W11" s="123">
-        <f t="shared" si="5"/>
-        <v>235912.83133484167</v>
+        <f t="shared" si="7"/>
+        <v>245580.65901174277</v>
       </c>
       <c r="X11" s="123">
-        <f t="shared" si="6"/>
-        <v>197750.82114567587</v>
+        <f t="shared" si="8"/>
+        <v>205726.77897911926</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2029</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11.240374299999999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3.5276668</v>
+        <v>2030</v>
+      </c>
+      <c r="B12">
+        <v>11.5275319715574</v>
+      </c>
+      <c r="C12">
+        <v>3.5605237470417501</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>7.7127074999999987</v>
+        <v>7.9670082245156495</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>254519.3475</v>
+        <v>262911.27140901645</v>
       </c>
       <c r="G12">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2583,53 +2613,53 @@
         <v>-3785.133690219991</v>
       </c>
       <c r="Q12" s="1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="R12">
-        <f>SUM(I12,J12,K12,M12)</f>
+        <f t="shared" si="3"/>
         <v>7935.6005102199906</v>
       </c>
       <c r="S12">
-        <f>SUM(L12,N12)</f>
+        <f t="shared" si="4"/>
         <v>4150.4668199999996</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U12" s="123">
-        <f t="shared" si="3"/>
-        <v>42170.426977885785</v>
+        <f t="shared" si="5"/>
+        <v>43639.013661963661</v>
       </c>
       <c r="V12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3785.133690219991</v>
       </c>
       <c r="W12" s="123">
-        <f t="shared" si="5"/>
-        <v>237188.73475484166</v>
+        <f t="shared" si="7"/>
+        <v>245580.65866385811</v>
       </c>
       <c r="X12" s="123">
-        <f t="shared" si="6"/>
-        <v>198803.44146717584</v>
+        <f t="shared" si="8"/>
+        <v>205726.77869211443</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2030</v>
-      </c>
-      <c r="B13" s="1">
-        <v>11.2727872</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3.5314174999999999</v>
+        <v>2031</v>
+      </c>
+      <c r="B13">
+        <v>11.527531100218599</v>
+      </c>
+      <c r="C13">
+        <v>3.5605228860455198</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>7.7413696999999999</v>
+        <v>7.9670082141730791</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>255465.20010000002</v>
+        <v>262911.27106771158</v>
       </c>
       <c r="G13">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2658,53 +2688,53 @@
         <v>-3785.133690219991</v>
       </c>
       <c r="Q13" s="1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="R13">
-        <f>SUM(I13,J13,K13,M13)</f>
+        <f t="shared" si="3"/>
         <v>7935.6005102199906</v>
       </c>
       <c r="S13">
-        <f>SUM(L13,N13)</f>
+        <f t="shared" si="4"/>
         <v>4150.4668199999996</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U13" s="123">
-        <f t="shared" si="3"/>
-        <v>42335.951182885787</v>
+        <f t="shared" si="5"/>
+        <v>43639.013602235311</v>
       </c>
       <c r="V13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3785.133690219991</v>
       </c>
       <c r="W13" s="123">
-        <f t="shared" si="5"/>
-        <v>238134.58735484167</v>
+        <f t="shared" si="7"/>
+        <v>245580.65832255324</v>
       </c>
       <c r="X13" s="123">
-        <f t="shared" si="6"/>
-        <v>199583.76986217586</v>
+        <f t="shared" si="8"/>
+        <v>205726.77841053793</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>2031</v>
-      </c>
-      <c r="B14" s="1">
-        <v>11.2970329</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3.5342164999999999</v>
+        <v>2032</v>
+      </c>
+      <c r="B14">
+        <v>11.527530245349499</v>
+      </c>
+      <c r="C14">
+        <v>3.5605220413235599</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>7.7628164000000002</v>
+        <v>7.9670082040259391</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>256172.94120000003</v>
+        <v>262911.27073285601</v>
       </c>
       <c r="G14">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2733,53 +2763,53 @@
         <v>-3785.133690219991</v>
       </c>
       <c r="Q14" s="1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="R14">
-        <f>SUM(I14,J14,K14,M14)</f>
+        <f t="shared" si="3"/>
         <v>7935.6005102199906</v>
       </c>
       <c r="S14">
-        <f>SUM(L14,N14)</f>
+        <f t="shared" si="4"/>
         <v>4150.4668199999996</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U14" s="123">
-        <f t="shared" si="3"/>
-        <v>42459.805875385791</v>
+        <f t="shared" si="5"/>
+        <v>43639.013543635585</v>
       </c>
       <c r="V14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3785.133690219991</v>
       </c>
       <c r="W14" s="123">
-        <f t="shared" si="5"/>
-        <v>238842.32845484169</v>
+        <f t="shared" si="7"/>
+        <v>245580.65798769766</v>
       </c>
       <c r="X14" s="123">
-        <f t="shared" si="6"/>
-        <v>200167.65626967588</v>
+        <f t="shared" si="8"/>
+        <v>205726.77813428207</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2032</v>
-      </c>
-      <c r="B15" s="1">
-        <v>11.315383199999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3.5363307800000001</v>
+        <v>2033</v>
+      </c>
+      <c r="B15">
+        <v>11.5275294066389</v>
+      </c>
+      <c r="C15">
+        <v>3.5605212125682599</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>7.7790524199999993</v>
+        <v>7.9670081940706403</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>256708.72985999996</v>
+        <v>262911.27040433115</v>
       </c>
       <c r="G15">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2808,53 +2838,53 @@
         <v>-3785.133690219991</v>
       </c>
       <c r="Q15" s="1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="R15">
-        <f>SUM(I15,J15,K15,M15)</f>
+        <f t="shared" si="3"/>
         <v>7935.6005102199906</v>
       </c>
       <c r="S15">
-        <f>SUM(L15,N15)</f>
+        <f t="shared" si="4"/>
         <v>4150.4668199999996</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U15" s="123">
-        <f t="shared" si="3"/>
-        <v>42553.568890885777</v>
+        <f t="shared" si="5"/>
+        <v>43639.013486143733</v>
       </c>
       <c r="V15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3785.133690219991</v>
       </c>
       <c r="W15" s="123">
-        <f t="shared" si="5"/>
-        <v>239378.11711484162</v>
+        <f t="shared" si="7"/>
+        <v>245580.65765917281</v>
       </c>
       <c r="X15" s="123">
-        <f t="shared" si="6"/>
-        <v>200609.68191417583</v>
+        <f t="shared" si="8"/>
+        <v>205726.77786324907</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2033</v>
-      </c>
-      <c r="B16" s="1">
-        <v>11.3294721</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3.5379513199999999</v>
+        <v>2034</v>
+      </c>
+      <c r="B16">
+        <v>11.5275285837812</v>
+      </c>
+      <c r="C16">
+        <v>3.5605203994778098</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>7.7915207800000008</v>
+        <v>7.9670081843033902</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>257120.18574000002</v>
+        <v>262911.27008201188</v>
       </c>
       <c r="G16">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2883,53 +2913,53 @@
         <v>-3785.133690219991</v>
       </c>
       <c r="Q16" s="1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="R16">
-        <f>SUM(I16,J16,K16,M16)</f>
+        <f t="shared" si="3"/>
         <v>7935.6005102199906</v>
       </c>
       <c r="S16">
-        <f>SUM(L16,N16)</f>
+        <f t="shared" si="4"/>
         <v>4150.4668199999996</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U16" s="123">
-        <f t="shared" si="3"/>
-        <v>42625.573669885787</v>
+        <f t="shared" si="5"/>
+        <v>43639.013429737861</v>
       </c>
       <c r="V16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3785.133690219991</v>
       </c>
       <c r="W16" s="123">
-        <f t="shared" si="5"/>
-        <v>239789.57299484167</v>
+        <f t="shared" si="7"/>
+        <v>245580.65733685353</v>
       </c>
       <c r="X16" s="123">
-        <f t="shared" si="6"/>
-        <v>200949.13301517587</v>
+        <f t="shared" si="8"/>
+        <v>205726.77759733566</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>2034</v>
-      </c>
-      <c r="B17" s="1">
-        <v>11.3404758</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.5392150500000001</v>
+        <v>2035</v>
+      </c>
+      <c r="B17">
+        <v>11.527527776476999</v>
+      </c>
+      <c r="C17">
+        <v>3.5605196017561398</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>7.80126075</v>
+        <v>7.9670081747208599</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>257441.60474999997</v>
+        <v>262911.2697657884</v>
       </c>
       <c r="G17">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -2958,10 +2988,10 @@
         <v>-3785.133690219991</v>
       </c>
       <c r="Q17" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="R17">
-        <f>SUM(I17,J17,K17,M17)</f>
+        <f t="shared" si="3"/>
         <v>7935.6005102199906</v>
       </c>
       <c r="S17">
@@ -2969,42 +2999,42 @@
         <v>4150.4668199999996</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U17" s="123">
-        <f t="shared" si="3"/>
-        <v>42681.821996635779</v>
+        <f>(W17+V17)*0.175</f>
+        <v>43639.013374398754</v>
       </c>
       <c r="V17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3785.133690219991</v>
       </c>
       <c r="W17" s="123">
-        <f t="shared" si="5"/>
-        <v>240110.99200484162</v>
+        <f t="shared" si="7"/>
+        <v>245580.65702063005</v>
       </c>
       <c r="X17" s="123">
-        <f t="shared" si="6"/>
-        <v>201214.30369842582</v>
+        <f t="shared" si="8"/>
+        <v>205726.77733645128</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2035</v>
-      </c>
-      <c r="B18" s="1">
-        <v>11.3492414</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3.5402202699999998</v>
+      <c r="A18">
+        <v>2036</v>
+      </c>
+      <c r="B18">
+        <v>11.5275269844322</v>
+      </c>
+      <c r="C18">
+        <v>3.5605188191127399</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>7.8090211300000005</v>
+        <v>7.9670081653194593</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="1"/>
-        <v>257697.69729000001</v>
+        <v>262911.26945554215</v>
       </c>
       <c r="G18">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
@@ -3033,34 +3063,2209 @@
         <v>-3785.133690219991</v>
       </c>
       <c r="Q18" s="1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="R18">
-        <f>SUM(I18,J18,K18,M18)</f>
+        <f t="shared" si="3"/>
         <v>7935.6005102199906</v>
       </c>
       <c r="S18">
-        <f>SUM(L18,N18)</f>
+        <f t="shared" si="4"/>
         <v>4150.4668199999996</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U18" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.01332010566</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W18" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.6567103838</v>
+      </c>
+      <c r="X18" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77708049811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2037</v>
+      </c>
+      <c r="B19">
+        <v>11.527526207358401</v>
+      </c>
+      <c r="C19">
+        <v>3.5605180512626098</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D47" si="9">(B19 -C19)</f>
+        <v>7.9670081560957904</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ref="F19:F47" si="10">D19*$B$2*44/12</f>
+        <v>262911.26915116108</v>
+      </c>
+      <c r="G19">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I19">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J19">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K19">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L19">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M19">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N19">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O47" si="11">(N19+L19)-(I19+J19+K19+M19)</f>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2037</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="3"/>
-        <v>42726.638191135789</v>
-      </c>
-      <c r="V18">
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T19">
+        <v>12</v>
+      </c>
+      <c r="U19" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.013266838971</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
         <v>3785.133690219991</v>
       </c>
-      <c r="W18" s="123">
+      <c r="W19" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65640600273</v>
+      </c>
+      <c r="X19" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77682938374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2038</v>
+      </c>
+      <c r="B20">
+        <v>11.5275254449725</v>
+      </c>
+      <c r="C20">
+        <v>3.5605172979261401</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="9"/>
+        <v>7.9670081470463607</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26885252993</v>
+      </c>
+      <c r="G20">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I20">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J20">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K20">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L20">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M20">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N20">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2038</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T20">
+        <v>13</v>
+      </c>
+      <c r="U20" s="123">
         <f t="shared" si="5"/>
-        <v>240367.08454484167</v>
-      </c>
-      <c r="X18" s="123">
+        <v>43639.013214578525</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="6"/>
-        <v>201425.58004392585</v>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W20" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65610737159</v>
+      </c>
+      <c r="X20" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77658301304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2039</v>
+      </c>
+      <c r="B21">
+        <v>11.527524696997</v>
+      </c>
+      <c r="C21">
+        <v>3.5605165588289802</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="9"/>
+        <v>7.96700813816802</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26855954464</v>
+      </c>
+      <c r="G21">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I21">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J21">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K21">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L21">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M21">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N21">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2039</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T21">
+        <v>14</v>
+      </c>
+      <c r="U21" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.013163306096</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W21" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65581438629</v>
+      </c>
+      <c r="X21" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77634130017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2040</v>
+      </c>
+      <c r="B22">
+        <v>11.527523963159499</v>
+      </c>
+      <c r="C22">
+        <v>3.560515833702</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="9"/>
+        <v>7.9670081294574988</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26827209746</v>
+      </c>
+      <c r="G22">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I22">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J22">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K22">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L22">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M22">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N22">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>2040</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T22">
+        <v>15</v>
+      </c>
+      <c r="U22" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.013113002839</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W22" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65552693911</v>
+      </c>
+      <c r="X22" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77610415625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2041</v>
+      </c>
+      <c r="B23">
+        <v>11.5275232431928</v>
+      </c>
+      <c r="C23">
+        <v>3.56051512228112</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="9"/>
+        <v>7.9670081209116796</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26799008541</v>
+      </c>
+      <c r="G23">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I23">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J23">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K23">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L23">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M23">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N23">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2041</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T23">
+        <v>16</v>
+      </c>
+      <c r="U23" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.013063650731</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W23" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65524492707</v>
+      </c>
+      <c r="X23" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77587149633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2042</v>
+      </c>
+      <c r="B24">
+        <v>11.527522536834599</v>
+      </c>
+      <c r="C24">
+        <v>3.5605144243072999</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="9"/>
+        <v>7.9670081125272993</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26771340088</v>
+      </c>
+      <c r="G24">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I24">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J24">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K24">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L24">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M24">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N24">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2042</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T24">
+        <v>17</v>
+      </c>
+      <c r="U24" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.013015230936</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W24" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65496824254</v>
+      </c>
+      <c r="X24" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77564323158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2043</v>
+      </c>
+      <c r="B25">
+        <v>11.527521843827801</v>
+      </c>
+      <c r="C25">
+        <v>3.56051373952634</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="9"/>
+        <v>7.9670081043014607</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26744194818</v>
+      </c>
+      <c r="G25">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I25">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J25">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K25">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L25">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M25">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N25">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2043</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T25">
+        <v>18</v>
+      </c>
+      <c r="U25" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012967726718</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W25" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65469678983</v>
+      </c>
+      <c r="X25" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77541928311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2044</v>
+      </c>
+      <c r="B26">
+        <v>11.527521163919999</v>
+      </c>
+      <c r="C26">
+        <v>3.5605130676889001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="9"/>
+        <v>7.9670080962310994</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.2671756263</v>
+      </c>
+      <c r="G26">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I26">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J26">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K26">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L26">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M26">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N26">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2044</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T26">
+        <v>19</v>
+      </c>
+      <c r="U26" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012921120389</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W26" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65443046796</v>
+      </c>
+      <c r="X26" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77519956755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2045</v>
+      </c>
+      <c r="B27">
+        <v>11.5275204968636</v>
+      </c>
+      <c r="C27">
+        <v>3.5605124085502999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="9"/>
+        <v>7.9670080883132997</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26691433892</v>
+      </c>
+      <c r="G27">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I27">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J27">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K27">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L27">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M27">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N27">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2045</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T27">
+        <v>20</v>
+      </c>
+      <c r="U27" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012875395092</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W27" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65416918058</v>
+      </c>
+      <c r="X27" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77498400546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2046</v>
+      </c>
+      <c r="B28">
+        <v>11.5275198424156</v>
+      </c>
+      <c r="C28">
+        <v>3.5605117618705302</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="9"/>
+        <v>7.96700808054507</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26665798732</v>
+      </c>
+      <c r="G28">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I28">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J28">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K28">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L28">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M28">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N28">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2046</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T28">
+        <v>21</v>
+      </c>
+      <c r="U28" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012830533567</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W28" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65391282897</v>
+      </c>
+      <c r="X28" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.7747725154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2047</v>
+      </c>
+      <c r="B29">
+        <v>11.5275192003378</v>
+      </c>
+      <c r="C29">
+        <v>3.5605111274140802</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="9"/>
+        <v>7.9670080729237194</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26640648278</v>
+      </c>
+      <c r="G29">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I29">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J29">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K29">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L29">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M29">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N29">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2047</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T29">
+        <v>22</v>
+      </c>
+      <c r="U29" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012786520274</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W29" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65366132444</v>
+      </c>
+      <c r="X29" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77456502416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2048</v>
+      </c>
+      <c r="B30">
+        <v>11.527518570396399</v>
+      </c>
+      <c r="C30">
+        <v>3.5605105049499302</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="9"/>
+        <v>7.9670080654464694</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26615973347</v>
+      </c>
+      <c r="G30">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I30">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J30">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K30">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L30">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M30">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N30">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>2048</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T30">
+        <v>23</v>
+      </c>
+      <c r="U30" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012743339139</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W30" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65341457512</v>
+      </c>
+      <c r="X30" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77436145596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2049</v>
+      </c>
+      <c r="B31">
+        <v>11.527517952361899</v>
+      </c>
+      <c r="C31">
+        <v>3.56050989425139</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="9"/>
+        <v>7.9670080581105092</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26591764682</v>
+      </c>
+      <c r="G31">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I31">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J31">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K31">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L31">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M31">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N31">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>2049</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T31">
+        <v>24</v>
+      </c>
+      <c r="U31" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012700973974</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W31" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65317248847</v>
+      </c>
+      <c r="X31" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77416173447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2050</v>
+      </c>
+      <c r="B32">
+        <v>11.527517346009301</v>
+      </c>
+      <c r="C32">
+        <v>3.5605092950960699</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="9"/>
+        <v>7.9670080509132308</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26568013662</v>
+      </c>
+      <c r="G32">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I32">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J32">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K32">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L32">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M32">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N32">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2050</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T32">
+        <v>25</v>
+      </c>
+      <c r="U32" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012659409695</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W32" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65293497828</v>
+      </c>
+      <c r="X32" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77396578857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2051</v>
+      </c>
+      <c r="B33">
+        <v>11.527516751117799</v>
+      </c>
+      <c r="C33">
+        <v>3.5605087072657899</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="9"/>
+        <v>7.9670080438520099</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26544711634</v>
+      </c>
+      <c r="G33">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I33">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J33">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K33">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L33">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M33">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N33">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>2051</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T33">
+        <v>26</v>
+      </c>
+      <c r="U33" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012618631146</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W33" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.652701958</v>
+      </c>
+      <c r="X33" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77377354683</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2052</v>
+      </c>
+      <c r="B34">
+        <v>11.527516167470701</v>
+      </c>
+      <c r="C34">
+        <v>3.5605081305464901</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="9"/>
+        <v>7.9670080369242111</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26521849894</v>
+      </c>
+      <c r="G34">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I34">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J34">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K34">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L34">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M34">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N34">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2052</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T34">
+        <v>27</v>
+      </c>
+      <c r="U34" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.0125786231</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W34" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.6524733406</v>
+      </c>
+      <c r="X34" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77358493747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2053</v>
+      </c>
+      <c r="B35">
+        <v>11.527515594855499</v>
+      </c>
+      <c r="C35">
+        <v>3.5605075647281401</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="9"/>
+        <v>7.9670080301273591</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26499420282</v>
+      </c>
+      <c r="G35">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I35">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J35">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K35">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L35">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M35">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N35">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2053</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T35">
+        <v>28</v>
+      </c>
+      <c r="U35" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012539371281</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W35" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65224904448</v>
+      </c>
+      <c r="X35" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77339989319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2054</v>
+      </c>
+      <c r="B36">
+        <v>11.5275150330637</v>
+      </c>
+      <c r="C36">
+        <v>3.5605070096047098</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="9"/>
+        <v>7.9670080234589911</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26477414666</v>
+      </c>
+      <c r="G36">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I36">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J36">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K36">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L36">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M36">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N36">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>2054</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T36">
+        <v>29</v>
+      </c>
+      <c r="U36" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012500861449</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W36" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65202898832</v>
+      </c>
+      <c r="X36" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77321834685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2055</v>
+      </c>
+      <c r="B37">
+        <v>11.5275144818907</v>
+      </c>
+      <c r="C37">
+        <v>3.5605064649740399</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="9"/>
+        <v>7.9670080169166599</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26455824979</v>
+      </c>
+      <c r="G37">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I37">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J37">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K37">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L37">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M37">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N37">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>2055</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T37">
+        <v>30</v>
+      </c>
+      <c r="U37" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012463079496</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W37" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65181309145</v>
+      </c>
+      <c r="X37" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77304023193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2056</v>
+      </c>
+      <c r="B38">
+        <v>11.527513941135799</v>
+      </c>
+      <c r="C38">
+        <v>3.5605059306378002</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="9"/>
+        <v>7.9670080104979988</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26434643398</v>
+      </c>
+      <c r="G38">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I38">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J38">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K38">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L38">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M38">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N38">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>2056</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T38">
+        <v>31</v>
+      </c>
+      <c r="U38" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.01242601173</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W38" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65160127563</v>
+      </c>
+      <c r="X38" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77286548389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2057</v>
+      </c>
+      <c r="B39">
+        <v>11.527513410602101</v>
+      </c>
+      <c r="C39">
+        <v>3.5605054064014201</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="9"/>
+        <v>7.9670080042006806</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26413862244</v>
+      </c>
+      <c r="G39">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I39">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J39">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K39">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L39">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M39">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N39">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>2057</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T39">
+        <v>32</v>
+      </c>
+      <c r="U39" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012389644711</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W39" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.6513934641</v>
+      </c>
+      <c r="X39" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77269403936</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2058</v>
+      </c>
+      <c r="B40">
+        <v>11.5275128900963</v>
+      </c>
+      <c r="C40">
+        <v>3.5605048920739701</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="9"/>
+        <v>7.9670079980223303</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.2639347369</v>
+      </c>
+      <c r="G40">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I40">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J40">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K40">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L40">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M40">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N40">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>2058</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T40">
+        <v>33</v>
+      </c>
+      <c r="U40" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012353964739</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W40" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65118957855</v>
+      </c>
+      <c r="X40" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.7725258338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2059</v>
+      </c>
+      <c r="B41">
+        <v>11.527512379429</v>
+      </c>
+      <c r="C41">
+        <v>3.5605043874681801</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="9"/>
+        <v>7.9670079919608199</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26373470708</v>
+      </c>
+      <c r="G41">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I41">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J41">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K41">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L41">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M41">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N41">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>2059</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T41">
+        <v>34</v>
+      </c>
+      <c r="U41" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012318959525</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W41" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65098954874</v>
+      </c>
+      <c r="X41" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77236080921</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2060</v>
+      </c>
+      <c r="B42">
+        <v>11.527511878414201</v>
+      </c>
+      <c r="C42">
+        <v>3.5605038924002699</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="9"/>
+        <v>7.9670079860139307</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26353845972</v>
+      </c>
+      <c r="G42">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I42">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J42">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K42">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L42">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M42">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N42">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>2060</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T42">
+        <v>35</v>
+      </c>
+      <c r="U42" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012284616234</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W42" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65079330138</v>
+      </c>
+      <c r="X42" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77219890512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2061</v>
+      </c>
+      <c r="B43">
+        <v>11.5275113868693</v>
+      </c>
+      <c r="C43">
+        <v>3.5605034066899899</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="9"/>
+        <v>7.9670079801793099</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26334591722</v>
+      </c>
+      <c r="G43">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I43">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J43">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K43">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L43">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M43">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N43">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>2061</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T43">
+        <v>36</v>
+      </c>
+      <c r="U43" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012250921296</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W43" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65060075888</v>
+      </c>
+      <c r="X43" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77204005758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2062</v>
+      </c>
+      <c r="B44">
+        <v>11.5275109046155</v>
+      </c>
+      <c r="C44">
+        <v>3.5605029301604301</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="9"/>
+        <v>7.9670079744550701</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.2631570173</v>
+      </c>
+      <c r="G44">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I44">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J44">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K44">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L44">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M44">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N44">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>2062</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T44">
+        <v>37</v>
+      </c>
+      <c r="U44" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012217863812</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W44" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65041185895</v>
+      </c>
+      <c r="X44" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77188421512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2063</v>
+      </c>
+      <c r="B45">
+        <v>11.527510431477101</v>
+      </c>
+      <c r="C45">
+        <v>3.5605024626380901</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="9"/>
+        <v>7.9670079688390105</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26297168736</v>
+      </c>
+      <c r="G45">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I45">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J45">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K45">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L45">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M45">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N45">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>2063</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T45">
+        <v>38</v>
+      </c>
+      <c r="U45" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012185431071</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W45" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65022652902</v>
+      </c>
+      <c r="X45" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77173131792</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2064</v>
+      </c>
+      <c r="B46">
+        <v>11.5275099672818</v>
+      </c>
+      <c r="C46">
+        <v>3.5605020039526898</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="9"/>
+        <v>7.9670079633291095</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.2627898606</v>
+      </c>
+      <c r="G46">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I46">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J46">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K46">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L46">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M46">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N46">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>2064</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T46">
+        <v>39</v>
+      </c>
+      <c r="U46" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012153611387</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W46" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.65004470226</v>
+      </c>
+      <c r="X46" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77158131084</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2065</v>
+      </c>
+      <c r="B47">
+        <v>11.5275095118606</v>
+      </c>
+      <c r="C47">
+        <v>3.56050155393722</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="9"/>
+        <v>7.9670079579233803</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="10"/>
+        <v>262911.26261147152</v>
+      </c>
+      <c r="G47">
+        <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
+        <v>17330.612745158352</v>
+      </c>
+      <c r="I47">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J47">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K47">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L47">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M47">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N47">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="11"/>
+        <v>-3785.133690219991</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>2065</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="3"/>
+        <v>7935.6005102199906</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="4"/>
+        <v>4150.4668199999996</v>
+      </c>
+      <c r="T47">
+        <v>40</v>
+      </c>
+      <c r="U47" s="123">
+        <f t="shared" si="5"/>
+        <v>43639.012122393302</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="6"/>
+        <v>3785.133690219991</v>
+      </c>
+      <c r="W47" s="123">
+        <f t="shared" si="7"/>
+        <v>245580.64986631318</v>
+      </c>
+      <c r="X47" s="123">
+        <f t="shared" si="8"/>
+        <v>205726.77143413987</v>
       </c>
     </row>
   </sheetData>
@@ -12839,12 +15044,12 @@
       <c r="R85"/>
     </row>
     <row r="86" spans="1:44" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="125" t="s">
+      <c r="B86" s="129" t="s">
         <v>218</v>
       </c>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
+      <c r="C86" s="129"/>
+      <c r="D86" s="129"/>
+      <c r="E86" s="129"/>
       <c r="F86" s="121"/>
       <c r="G86" s="121"/>
       <c r="H86" s="121"/>
